--- a/biology/Biochimie/Métabolisme_des_glucides/Métabolisme_des_glucides.xlsx
+++ b/biology/Biochimie/Métabolisme_des_glucides/Métabolisme_des_glucides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9tabolisme_des_glucides</t>
+          <t>Métabolisme_des_glucides</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le métabolisme des glucides est l'ensemble des processus biochimiques responsables de la formation, la dégradation et de l'interconversion des glucides chez les organismes vivants.
 Le glucide le plus important est le glucose, un sucre simple (ose) qui est métabolisé par presque tous les organismes connus. Le glucose et d'autres glucides participent à une grande variété de voies métaboliques présentes chez toutes les espèces vivantes : les plantes synthétisent grâce à la photosynthèse des glucides (amidon) à partir du CO2 présent dans l'atmosphère terrestre. Elles peuvent ensuite être consommées par d'autres organismes et servir de carburant pour la respiration cellulaire. L'oxydation des glucides libère environ 16.72 kJ/g (4 kcal/g) d'énergie.
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9tabolisme_des_glucides</t>
+          <t>Métabolisme_des_glucides</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Dégradation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les glucides sont hydrolysés ou isomérisés en glucose (ou fructose) puis dégradés en pyruvate par la glycolyse, la voie des pentoses phosphates ou, pour les bactéries, la voie d'Entner-Doudoroff. Le pyruvate, est, suivant les conditions, fermenté en lactate ou éthanol. En aérobiose, le pyruvate est transformé en acétylCoA et oxaloacétate. Enfin, ces derniers entrent dans le cycle de Krebs qui libère du dioxyde de carbone et de l'eau.
 </t>
